--- a/中企动力/冯哥发的文档/2019年电商中台部招聘申请-20190506.xlsx
+++ b/中企动力/冯哥发的文档/2019年电商中台部招聘申请-20190506.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="778" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="778"/>
   </bookViews>
   <sheets>
     <sheet name="高级JAVA开发工程师" sheetId="12" r:id="rId1"/>
@@ -448,80 +448,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">所需知识、技能、能力：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1. 3年以上J2EE实际开发工作经验，精通Spring、SpringMVC、Mybatis等主流Java开发框架，
-2. 精通Java多线程及并发编程技术，以及JVM的调优；
-3. 精通Dubbo等主流微服务框架的使用，了解原理
-4. 精通J2EE规范
-5. 精通Servlet生命周期
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>学历及专业：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">本科及以上计算机专业毕业；
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>经验与资历：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">3年以上J2EE工作经验。
-                     </t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 负责以VUE、NodeJs为主的大前端架构设计
 2. 精通ES6标准，会使用gulp，webpack 等现代化工具
 3. 精通nodejs和VUE框架，为组内同事培训和分享技术，提升整体能力
@@ -599,6 +525,81 @@
         <charset val="134"/>
       </rPr>
       <t>3年以上前端代码开发应用经验,2年以上架构设计经验</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+所需知识、技能、能力：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1. 4年以上J2EE实际开发工作经验，精通Spring、SpringMVC、Mybatis等主流Java开发框架，
+2. 精通Java多线程及并发编程技术，以及JVM的调优；
+3. 精通Dubbo等主流微服务框架的使用，了解原理
+4. 精通J2EE规范
+5. 精通Servlet生命周期
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>学历及专业：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">本科及以上计算机专业毕业；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>经验与资历：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3年以上J2EE工作经验。
+                     </t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -996,143 +997,143 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
@@ -1475,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1490,24 +1491,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -1533,11 +1534,11 @@
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1549,11 +1550,11 @@
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
@@ -1562,178 +1563,178 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
+      <c r="C8" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="41"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="41"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="41"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="41"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="41"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="48"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="41"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="46"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="42"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
     </row>
     <row r="18" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="4" t="s">
         <v>26</v>
       </c>
@@ -1748,10 +1749,10 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="5" t="s">
         <v>29</v>
       </c>
@@ -1767,8 +1768,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="5" t="s">
         <v>31</v>
       </c>
@@ -1783,10 +1784,10 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="4" t="s">
         <v>29</v>
       </c>
@@ -1801,90 +1802,530 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="13"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="54"/>
     </row>
     <row r="31" spans="1:6" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A31" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="54"/>
     </row>
     <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="54"/>
     </row>
     <row r="33" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="C8:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="A19:F19"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="33.25" style="7" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="29"/>
+      <c r="B9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="63"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="29"/>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="63"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="29"/>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="63"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="29"/>
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="29"/>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="29"/>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="29"/>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="63"/>
+    </row>
+    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="30"/>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="66"/>
+    </row>
+    <row r="17" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A24" s="50"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="52"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="52"/>
+      <c r="F30" s="54"/>
+    </row>
+    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="56"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="52"/>
+      <c r="F31" s="54"/>
+    </row>
+    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="52"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="52"/>
+      <c r="F32" s="54"/>
+    </row>
+    <row r="33" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -1918,446 +2359,6 @@
     <mergeCell ref="E31:F31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:F33"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="33.25" style="7" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:6" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="63"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="41"/>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="41"/>
-      <c r="B11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="41"/>
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="63"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="41"/>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="63"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="41"/>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="41"/>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="63"/>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="42"/>
-      <c r="B16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="66"/>
-    </row>
-    <row r="17" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
-    </row>
-    <row r="18" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="C8:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="A19:F19"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
 </worksheet>
